--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H2">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I2">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J2">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>32610.7356803527</v>
+        <v>49345.09047299175</v>
       </c>
       <c r="R2">
-        <v>293496.6211231743</v>
+        <v>444105.8142569258</v>
       </c>
       <c r="S2">
-        <v>0.1611681888773307</v>
+        <v>0.1676381508715728</v>
       </c>
       <c r="T2">
-        <v>0.1611681888773307</v>
+        <v>0.1676381508715728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H3">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I3">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J3">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>35854.34585719614</v>
+        <v>57168.1127571229</v>
       </c>
       <c r="R3">
-        <v>322689.1127147652</v>
+        <v>514513.0148141062</v>
       </c>
       <c r="S3">
-        <v>0.1771987005085324</v>
+        <v>0.1942149992949565</v>
       </c>
       <c r="T3">
-        <v>0.1771987005085323</v>
+        <v>0.1942149992949564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H4">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I4">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J4">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>19873.42622095859</v>
+        <v>43393.02937982605</v>
       </c>
       <c r="R4">
-        <v>178860.8359886273</v>
+        <v>390537.2644184345</v>
       </c>
       <c r="S4">
-        <v>0.0982180881233192</v>
+        <v>0.1474174459145304</v>
       </c>
       <c r="T4">
-        <v>0.09821808812331918</v>
+        <v>0.1474174459145304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H5">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I5">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J5">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>14462.90463640575</v>
+        <v>22271.58413143611</v>
       </c>
       <c r="R5">
-        <v>130166.1417276518</v>
+        <v>200444.257182925</v>
       </c>
       <c r="S5">
-        <v>0.07147830607082625</v>
+        <v>0.0756623839370225</v>
       </c>
       <c r="T5">
-        <v>0.07147830607082625</v>
+        <v>0.07566238393702249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J6">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>24862.25043169072</v>
+        <v>23594.55212379587</v>
       </c>
       <c r="R6">
-        <v>223760.2538852165</v>
+        <v>212350.9691141629</v>
       </c>
       <c r="S6">
-        <v>0.1228737650314453</v>
+        <v>0.08015685148740334</v>
       </c>
       <c r="T6">
-        <v>0.1228737650314453</v>
+        <v>0.08015685148740333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J7">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>27335.16147883549</v>
@@ -883,10 +883,10 @@
         <v>246016.4533095194</v>
       </c>
       <c r="S7">
-        <v>0.1350953413439106</v>
+        <v>0.09286467772505032</v>
       </c>
       <c r="T7">
-        <v>0.1350953413439106</v>
+        <v>0.09286467772505029</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>485.815337</v>
       </c>
       <c r="I8">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J8">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>15151.3938380386</v>
+        <v>20748.55033596693</v>
       </c>
       <c r="R8">
-        <v>136362.5445423474</v>
+        <v>186736.9530237024</v>
       </c>
       <c r="S8">
-        <v>0.07488094496791861</v>
+        <v>0.0704882406384686</v>
       </c>
       <c r="T8">
-        <v>0.0748809449679186</v>
+        <v>0.07048824063846859</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>485.815337</v>
       </c>
       <c r="I9">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J9">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>11026.44112554077</v>
+        <v>10649.24691862287</v>
       </c>
       <c r="R9">
-        <v>99237.97012986691</v>
+        <v>95843.22226760586</v>
       </c>
       <c r="S9">
-        <v>0.05449467817546339</v>
+        <v>0.03617827112080876</v>
       </c>
       <c r="T9">
-        <v>0.05449467817546339</v>
+        <v>0.03617827112080876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H10">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>6661.402417368642</v>
+        <v>11334.84212644599</v>
       </c>
       <c r="R10">
-        <v>59952.62175631779</v>
+        <v>102013.5791380139</v>
       </c>
       <c r="S10">
-        <v>0.03292186271152425</v>
+        <v>0.03850741697471666</v>
       </c>
       <c r="T10">
-        <v>0.03292186271152425</v>
+        <v>0.03850741697471665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H11">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I11">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J11">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>7323.975408202585</v>
+        <v>13131.83391817913</v>
       </c>
       <c r="R11">
-        <v>65915.77867382327</v>
+        <v>118186.5052636122</v>
       </c>
       <c r="S11">
-        <v>0.03619641897969452</v>
+        <v>0.04461226708665272</v>
       </c>
       <c r="T11">
-        <v>0.03619641897969451</v>
+        <v>0.04461226708665271</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H12">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I12">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J12">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>4059.549308157746</v>
+        <v>9967.620541252605</v>
       </c>
       <c r="R12">
-        <v>36535.94377341971</v>
+        <v>89708.58487127344</v>
       </c>
       <c r="S12">
-        <v>0.02006303126881585</v>
+        <v>0.03386260841977101</v>
       </c>
       <c r="T12">
-        <v>0.02006303126881585</v>
+        <v>0.033862608419771</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H13">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I13">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J13">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>2954.340829703215</v>
+        <v>5115.906924395238</v>
       </c>
       <c r="R13">
-        <v>26589.06746732894</v>
+        <v>46043.16231955714</v>
       </c>
       <c r="S13">
-        <v>0.01460088988843284</v>
+        <v>0.01738007101853625</v>
       </c>
       <c r="T13">
-        <v>0.01460088988843284</v>
+        <v>0.01738007101853624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H14">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I14">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J14">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>51.97709528918266</v>
+        <v>85.76193522345935</v>
       </c>
       <c r="R14">
-        <v>467.793857602644</v>
+        <v>771.8574170111341</v>
       </c>
       <c r="S14">
-        <v>0.0002568802615486228</v>
+        <v>0.0002913556768914496</v>
       </c>
       <c r="T14">
-        <v>0.0002568802615486228</v>
+        <v>0.0002913556768914496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H15">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I15">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J15">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>57.14697053809734</v>
+        <v>99.35837458454536</v>
       </c>
       <c r="R15">
-        <v>514.322734842876</v>
+        <v>894.2253712609081</v>
       </c>
       <c r="S15">
-        <v>0.000282430725627583</v>
+        <v>0.0003375463299246517</v>
       </c>
       <c r="T15">
-        <v>0.000282430725627583</v>
+        <v>0.0003375463299246516</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H16">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I16">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J16">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>31.675549381477</v>
+        <v>75.41723278142935</v>
       </c>
       <c r="R16">
-        <v>285.079944433293</v>
+        <v>678.755095032864</v>
       </c>
       <c r="S16">
-        <v>0.0001565463280419894</v>
+        <v>0.0002562120228404408</v>
       </c>
       <c r="T16">
-        <v>0.0001565463280419894</v>
+        <v>0.0002562120228404408</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H17">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I17">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J17">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>23.05191087417667</v>
+        <v>38.708089037743</v>
       </c>
       <c r="R17">
-        <v>207.46719786759</v>
+        <v>348.372801339687</v>
       </c>
       <c r="S17">
-        <v>0.0001139267375679308</v>
+        <v>0.0001315014808537246</v>
       </c>
       <c r="T17">
-        <v>0.0001139267375679308</v>
+        <v>0.0001315014808537246</v>
       </c>
     </row>
   </sheetData>
